--- a/Integrated Project/Gauteng MMS/web/Reports/Weekly/Outstanding Results/2013-Week-24 Report - Outstanding Results.xlsx
+++ b/Integrated Project/Gauteng MMS/web/Reports/Weekly/Outstanding Results/2013-Week-24 Report - Outstanding Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Forensic Pathology Service</t>
   </si>
@@ -20,10 +20,10 @@
     <t>Outstanding Results Report</t>
   </si>
   <si>
-    <t>Death Register No.</t>
+    <t>Date Sent</t>
   </si>
   <si>
-    <t>Number of Samples Sent</t>
+    <t>Death Register No.</t>
   </si>
   <si>
     <t>Number of Samples Received</t>
@@ -33,30 +33,6 @@
   </si>
   <si>
     <t>Days Outstanding</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>099888592</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
 </sst>
 </file>
@@ -325,7 +301,7 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="n" s="1">
-        <v>41435.461907523146</v>
+        <v>41439.3249241088</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -424,25 +400,15 @@
       <c r="N11" s="6"/>
     </row>
     <row r="12" ht="30.0" customHeight="true">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -450,25 +416,15 @@
       <c r="N12" s="5"/>
     </row>
     <row r="13" ht="30.0" customHeight="true">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
